--- a/analysis_report.xlsx
+++ b/analysis_report.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk744\Downloads\Main Insight\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C8D921-CD32-43F6-9A5D-0854EDD74B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Insights" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Month</t>
   </si>
@@ -49,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,32 +99,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +155,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,7 +189,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,10 +223,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,23 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,220 +425,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1742073</v>
-      </c>
-      <c r="C3">
-        <v>1825548.6644025201</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>44958</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1463535</v>
-      </c>
-      <c r="C4">
-        <v>1629747.652757288</v>
-      </c>
-      <c r="D4">
-        <v>-278538</v>
-      </c>
-      <c r="E4">
-        <v>-195801.01164523209</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>44986</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1341928</v>
-      </c>
-      <c r="C5">
-        <v>730372.93447982299</v>
-      </c>
-      <c r="D5">
-        <v>-121607</v>
-      </c>
-      <c r="E5">
-        <v>-899374.71827746497</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>45017</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1247719</v>
-      </c>
-      <c r="C6">
-        <v>1273897.9312195589</v>
-      </c>
-      <c r="D6">
-        <v>-94209</v>
-      </c>
-      <c r="E6">
-        <v>543524.99673973594</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>45047</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1212543</v>
-      </c>
-      <c r="C7">
-        <v>1091608.008257133</v>
-      </c>
-      <c r="D7">
-        <v>-35176</v>
-      </c>
-      <c r="E7">
-        <v>-182289.922962426</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>45078</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>884848</v>
-      </c>
-      <c r="C8">
-        <v>1258495.5690251531</v>
-      </c>
-      <c r="D8">
-        <v>-327695</v>
-      </c>
-      <c r="E8">
-        <v>166887.56076802011</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>45108</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>923405</v>
-      </c>
-      <c r="C9">
-        <v>928524.77395253803</v>
-      </c>
-      <c r="D9">
-        <v>38557</v>
-      </c>
-      <c r="E9">
-        <v>-329970.79507261497</v>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>45139</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>205968</v>
-      </c>
-      <c r="C10">
-        <v>255002.66571571</v>
-      </c>
-      <c r="D10">
-        <v>-717437</v>
-      </c>
-      <c r="E10">
-        <v>-673522.108236828</v>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>45170</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>173607</v>
-      </c>
-      <c r="C11">
-        <v>171767.06795</v>
-      </c>
-      <c r="D11">
-        <v>-32361</v>
-      </c>
-      <c r="E11">
-        <v>-83235.597765710001</v>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>45200</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>243973</v>
-      </c>
-      <c r="C12">
-        <v>114613.99065000001</v>
-      </c>
-      <c r="D12">
-        <v>70366</v>
-      </c>
-      <c r="E12">
-        <v>-57153.077300000019</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>45231</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>171494</v>
-      </c>
-      <c r="C13">
-        <v>185790.202581675</v>
-      </c>
-      <c r="D13">
-        <v>-72479</v>
-      </c>
-      <c r="E13">
-        <v>71176.211931674989</v>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>45323</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
